--- a/gpteams.xlsx
+++ b/gpteams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidgaofc/PycharmProjects/GPTeams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BE00A8-7F6D-2A4C-B734-09ED7B12C0C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A065CC-0365-144D-8B74-A6CEECE07793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{7D3E0EF6-9EFD-E44B-B572-5559C9086DD1}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="2" xr2:uid="{7D3E0EF6-9EFD-E44B-B572-5559C9086DD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Correctness" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="3">
   <si>
     <t>n1</t>
   </si>
@@ -1974,15 +1974,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD22912-38D8-9842-BCEA-2BCE2431A1B0}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>1</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2116,6 +2116,267 @@
         <v>0</v>
       </c>
       <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="R5" t="s">
+        <v>0</v>
+      </c>
+      <c r="S5" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>7</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>10</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q8">
+        <v>3</v>
+      </c>
+      <c r="R8">
+        <v>9</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q9">
+        <v>4</v>
+      </c>
+      <c r="R9">
+        <v>10</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q10">
+        <v>5</v>
+      </c>
+      <c r="R10">
+        <v>10</v>
+      </c>
+      <c r="S10">
+        <v>10</v>
+      </c>
+      <c r="T10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q11">
+        <v>6</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q12">
+        <v>7</v>
+      </c>
+      <c r="R12">
+        <v>7</v>
+      </c>
+      <c r="S12">
+        <v>7</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q13">
+        <v>8</v>
+      </c>
+      <c r="R13">
+        <v>7</v>
+      </c>
+      <c r="S13">
+        <v>7</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q14">
+        <v>9</v>
+      </c>
+      <c r="R14">
+        <v>10</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q15">
+        <v>10</v>
+      </c>
+      <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="18:20" x14ac:dyDescent="0.2">
+      <c r="R22" t="s">
+        <v>0</v>
+      </c>
+      <c r="S22" t="s">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="18:20" x14ac:dyDescent="0.2">
+      <c r="R23">
+        <v>7</v>
+      </c>
+      <c r="S23">
+        <v>2</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="18:20" x14ac:dyDescent="0.2">
+      <c r="R24">
+        <v>10</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="18:20" x14ac:dyDescent="0.2">
+      <c r="R25">
+        <v>9</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="18:20" x14ac:dyDescent="0.2">
+      <c r="R26">
+        <v>10</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="18:20" x14ac:dyDescent="0.2">
+      <c r="R27">
+        <v>10</v>
+      </c>
+      <c r="S27">
+        <v>10</v>
+      </c>
+      <c r="T27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="18:20" x14ac:dyDescent="0.2">
+      <c r="R28">
+        <v>7</v>
+      </c>
+      <c r="S28">
+        <v>7</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="18:20" x14ac:dyDescent="0.2">
+      <c r="R29">
+        <v>7</v>
+      </c>
+      <c r="S29">
+        <v>7</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="18:20" x14ac:dyDescent="0.2">
+      <c r="R30">
+        <v>10</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="18:20" x14ac:dyDescent="0.2">
+      <c r="R31">
+        <v>2</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31">
         <v>0</v>
       </c>
     </row>
@@ -2128,15 +2389,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{779DACE8-CA65-6C4D-AE6D-88781794E5AE}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P20" sqref="P20:R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>1</v>
       </c>
@@ -2168,7 +2429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2203,7 +2464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2238,7 +2499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2270,6 +2531,294 @@
         <v>4</v>
       </c>
       <c r="K4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8">
+        <v>4</v>
+      </c>
+      <c r="R8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O9">
+        <v>4</v>
+      </c>
+      <c r="P9">
+        <v>6</v>
+      </c>
+      <c r="Q9">
+        <v>8</v>
+      </c>
+      <c r="R9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O10">
+        <v>5</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O11">
+        <v>6</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O12">
+        <v>7</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O13">
+        <v>8</v>
+      </c>
+      <c r="P13">
+        <v>8</v>
+      </c>
+      <c r="Q13">
+        <v>9</v>
+      </c>
+      <c r="R13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O14">
+        <v>9</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>3</v>
+      </c>
+      <c r="R14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O15">
+        <v>10</v>
+      </c>
+      <c r="P15">
+        <v>2</v>
+      </c>
+      <c r="Q15">
+        <v>9</v>
+      </c>
+      <c r="R15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="15:18" x14ac:dyDescent="0.2">
+      <c r="P20" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>1</v>
+      </c>
+      <c r="R20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="15:18" x14ac:dyDescent="0.2">
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>3</v>
+      </c>
+      <c r="Q21">
+        <v>3</v>
+      </c>
+      <c r="R21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="15:18" x14ac:dyDescent="0.2">
+      <c r="O22">
+        <v>2</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="15:18" x14ac:dyDescent="0.2">
+      <c r="O23">
+        <v>3</v>
+      </c>
+      <c r="P23">
+        <v>3</v>
+      </c>
+      <c r="Q23">
+        <v>4</v>
+      </c>
+      <c r="R23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="15:18" x14ac:dyDescent="0.2">
+      <c r="O24">
+        <v>4</v>
+      </c>
+      <c r="P24">
+        <v>6</v>
+      </c>
+      <c r="Q24">
+        <v>8</v>
+      </c>
+      <c r="R24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="15:18" x14ac:dyDescent="0.2">
+      <c r="O25">
+        <v>5</v>
+      </c>
+      <c r="P25">
+        <v>2</v>
+      </c>
+      <c r="Q25">
+        <v>2</v>
+      </c>
+      <c r="R25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="15:18" x14ac:dyDescent="0.2">
+      <c r="O26">
+        <v>7</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="15:18" x14ac:dyDescent="0.2">
+      <c r="O27">
+        <v>8</v>
+      </c>
+      <c r="P27">
+        <v>8</v>
+      </c>
+      <c r="Q27">
+        <v>9</v>
+      </c>
+      <c r="R27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="15:18" x14ac:dyDescent="0.2">
+      <c r="O28">
+        <v>9</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>3</v>
+      </c>
+      <c r="R28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="15:18" x14ac:dyDescent="0.2">
+      <c r="O29">
+        <v>10</v>
+      </c>
+      <c r="P29">
+        <v>2</v>
+      </c>
+      <c r="Q29">
+        <v>9</v>
+      </c>
+      <c r="R29">
         <v>8</v>
       </c>
     </row>
@@ -2280,15 +2829,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7486D13E-F306-6445-A7DC-8A6949F65E72}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>1</v>
       </c>
@@ -2320,7 +2869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2355,7 +2904,7 @@
         <v>1.8117354199999599E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2390,7 +2939,7 @@
         <v>4.2816600000605799E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2422,6 +2971,302 @@
         <v>#NULL!</v>
       </c>
       <c r="K4" t="e">
+        <v>#NULL!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+    </row>
+    <row r="7" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+      <c r="O7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>2</v>
+      </c>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+    </row>
+    <row r="8" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1">
+        <v>2.2160831999999998E-3</v>
+      </c>
+      <c r="P8" s="1">
+        <v>3.37646499999982E-4</v>
+      </c>
+      <c r="Q8" t="e">
+        <v>#NULL!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9" s="1">
+        <v>3.7447457999999901E-3</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1.89791999999994E-4</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1.3108957000000001E-3</v>
+      </c>
+      <c r="R9" s="1"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+    </row>
+    <row r="10" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10" s="1">
+        <v>3.2519050000000001E-2</v>
+      </c>
+      <c r="P10">
+        <v>5.7203020000000104E-3</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>101.242805933299</v>
+      </c>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+    </row>
+    <row r="11" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <v>4</v>
+      </c>
+      <c r="O11" s="2">
+        <v>5.5908500000007002E-5</v>
+      </c>
+      <c r="P11" s="1">
+        <v>9.0917525708000007</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>4.9150099999906097E-5</v>
+      </c>
+      <c r="R11" s="1"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <v>5</v>
+      </c>
+      <c r="O12" s="1">
+        <v>8.1216250000001303E-4</v>
+      </c>
+      <c r="P12" s="1">
+        <v>4.23800099999988E-4</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>2.2150819999999701E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N13">
+        <v>6</v>
+      </c>
+      <c r="O13" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="P13" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="Q13" t="e">
+        <v>#NULL!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+      <c r="N14">
+        <v>7</v>
+      </c>
+      <c r="O14" s="1">
+        <v>2.2778696250000002E-3</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1.185942625E-3</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>1.1817500000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+      <c r="N15">
+        <v>8</v>
+      </c>
+      <c r="O15" s="1">
+        <v>5.5498611111111503E-4</v>
+      </c>
+      <c r="P15" s="1">
+        <v>2.3953700000000201E-4</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>1.05999999999994E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="17" x14ac:dyDescent="0.25">
+      <c r="N16">
+        <v>9</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1.16000000000004E-4</v>
+      </c>
+      <c r="P16" s="1">
+        <v>3.0516600000002298E-4</v>
+      </c>
+      <c r="Q16" t="e">
+        <v>#NULL!</v>
+      </c>
+    </row>
+    <row r="17" spans="14:17" ht="17" x14ac:dyDescent="0.25">
+      <c r="N17">
+        <v>10</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1.8117354199999599E-2</v>
+      </c>
+      <c r="P17" s="1">
+        <v>4.2816600000605799E-4</v>
+      </c>
+      <c r="Q17" t="e">
+        <v>#NULL!</v>
+      </c>
+    </row>
+    <row r="20" spans="14:17" x14ac:dyDescent="0.2">
+      <c r="O20" t="s">
+        <v>0</v>
+      </c>
+      <c r="P20" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="14:17" ht="17" x14ac:dyDescent="0.25">
+      <c r="O21" s="1">
+        <v>2.2160831999999998E-3</v>
+      </c>
+      <c r="P21" s="1">
+        <v>3.37646499999982E-4</v>
+      </c>
+      <c r="Q21" t="e">
+        <v>#NULL!</v>
+      </c>
+    </row>
+    <row r="22" spans="14:17" ht="17" x14ac:dyDescent="0.25">
+      <c r="O22" s="1">
+        <v>3.7447457999999901E-3</v>
+      </c>
+      <c r="P22" s="1">
+        <v>1.89791999999994E-4</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>1.3108957000000001E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="14:17" ht="17" x14ac:dyDescent="0.25">
+      <c r="O23" s="1">
+        <v>3.2519050000000001E-2</v>
+      </c>
+      <c r="P23">
+        <v>5.7203020000000104E-3</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>101.242805933299</v>
+      </c>
+    </row>
+    <row r="24" spans="14:17" ht="17" x14ac:dyDescent="0.25">
+      <c r="O24" s="2">
+        <v>5.5908500000007002E-5</v>
+      </c>
+      <c r="P24" s="1">
+        <v>9.0917525708000007</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>4.9150099999906097E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="14:17" ht="17" x14ac:dyDescent="0.25">
+      <c r="O25" s="1">
+        <v>8.1216250000001303E-4</v>
+      </c>
+      <c r="P25" s="1">
+        <v>4.23800099999988E-4</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>2.2150819999999701E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="14:17" ht="17" x14ac:dyDescent="0.25">
+      <c r="O26" s="1">
+        <v>2.2778696250000002E-3</v>
+      </c>
+      <c r="P26" s="1">
+        <v>1.185942625E-3</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>1.1817500000000001E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="14:17" ht="17" x14ac:dyDescent="0.25">
+      <c r="O27" s="1">
+        <v>5.5498611111111503E-4</v>
+      </c>
+      <c r="P27" s="1">
+        <v>2.3953700000000201E-4</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>1.05999999999994E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="14:17" ht="17" x14ac:dyDescent="0.25">
+      <c r="O28" s="1">
+        <v>1.16000000000004E-4</v>
+      </c>
+      <c r="P28" s="1">
+        <v>3.0516600000002298E-4</v>
+      </c>
+      <c r="Q28" t="e">
+        <v>#NULL!</v>
+      </c>
+    </row>
+    <row r="29" spans="14:17" ht="17" x14ac:dyDescent="0.25">
+      <c r="O29" s="1">
+        <v>1.8117354199999599E-2</v>
+      </c>
+      <c r="P29" s="1">
+        <v>4.2816600000605799E-4</v>
+      </c>
+      <c r="Q29" t="e">
         <v>#NULL!</v>
       </c>
     </row>
